--- a/Diclofenac/Data/HPLC_D.xlsx
+++ b/Diclofenac/Data/HPLC_D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4795f5e3347afba5/Desktop/Dissertation/Lake_Murray/2024-25_Lake_Murray_Bioassays/Diclofenac/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B5C1B9-0503-42E7-A147-1CC61544B5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{07B5C1B9-0503-42E7-A147-1CC61544B5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB265FC-E4B2-4EB9-A363-EF7772928E3B}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5D515399-1F79-47C3-98B8-AA57F91C045E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5D515399-1F79-47C3-98B8-AA57F91C045E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,13 +511,13 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -528,7 +528,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -549,7 +549,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="4">
-        <v>45434</v>
+        <v>45455</v>
       </c>
       <c r="D2" s="3">
         <v>5.7554989899213975</v>
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
       <c r="C3" s="4">
-        <v>45434</v>
+        <v>45455</v>
       </c>
       <c r="D3" s="3">
         <v>5.7315560692310985</v>
@@ -589,7 +589,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>45434</v>
+        <v>45455</v>
       </c>
       <c r="D4" s="3">
         <v>5.910356405636227</v>
@@ -607,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="4">
-        <v>45434</v>
+        <v>45455</v>
       </c>
       <c r="D5" s="3">
         <v>5.9501197253178884</v>
@@ -625,7 +625,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="4">
-        <v>45434</v>
+        <v>45455</v>
       </c>
       <c r="D6" s="3">
         <v>5.8124002647620774</v>
@@ -643,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D7" s="3">
         <v>15.203331900483603</v>
@@ -665,7 +665,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D8" s="3">
         <v>17.566121236885479</v>
@@ -683,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D9" s="3">
         <v>15.658064369745093</v>
@@ -701,7 +701,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D10" s="3">
         <v>17.173335504101122</v>
@@ -719,7 +719,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D11" s="3">
         <v>18.076292376467286</v>
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D12" s="3">
         <v>13.376591998920148</v>
@@ -759,7 +759,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D13" s="3">
         <v>17.397000457392664</v>
@@ -777,7 +777,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D14" s="3">
         <v>90.471660032348723</v>
@@ -795,7 +795,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D15" s="3">
         <v>19.892430940317194</v>
@@ -813,7 +813,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D16" s="3">
         <v>17.394068865837813</v>
@@ -831,7 +831,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D17" s="3">
         <v>17.345781923014485</v>
@@ -853,7 +853,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D18" s="3">
         <v>21.441809492130545</v>
@@ -871,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D19" s="3">
         <v>19.768112561447019</v>
@@ -889,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D20" s="3">
         <v>17.766156998036287</v>
@@ -907,7 +907,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D21" s="3">
         <v>19.977595020341266</v>
@@ -925,7 +925,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D22" s="3">
         <v>20.358742101934229</v>
@@ -947,7 +947,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D23" s="3">
         <v>18.238856453518999</v>
@@ -965,7 +965,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D24" s="3">
         <v>18.585532932831857</v>
@@ -983,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="C25" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D25" s="3">
         <v>18.777670857690435</v>
@@ -1001,7 +1001,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D26" s="3">
         <v>18.553627177039356</v>
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D27" s="3">
         <v>18.417155798337525</v>
@@ -1041,7 +1041,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D28" s="3">
         <v>18.279448631857576</v>
@@ -1059,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D29" s="3">
         <v>20.122350468313723</v>
@@ -1077,7 +1077,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D30" s="3">
         <v>18.94701082900605</v>
@@ -1095,7 +1095,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D31" s="3">
         <v>18.840942477793956</v>
@@ -1113,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="C32" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D32" s="3">
         <v>18.008671056109538</v>
@@ -1135,7 +1135,7 @@
         <v>8</v>
       </c>
       <c r="C33" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D33" s="3">
         <v>18.521817349886405</v>
@@ -1153,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="C34" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D34" s="3">
         <v>19.281023822675628</v>
@@ -1171,7 +1171,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D35" s="3">
         <v>18.591257215368078</v>
@@ -1189,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D36" s="3">
         <v>18.796125638604828</v>
@@ -1207,7 +1207,7 @@
         <v>7</v>
       </c>
       <c r="C37" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D37" s="3">
         <v>18.979489881705831</v>
@@ -1229,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="C38" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D38" s="3">
         <v>18.149189231728986</v>
@@ -1247,7 +1247,7 @@
         <v>9</v>
       </c>
       <c r="C39" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D39" s="3">
         <v>18.866307676753099</v>
@@ -1265,7 +1265,7 @@
         <v>10</v>
       </c>
       <c r="C40" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D40" s="3">
         <v>18.034840505563427</v>
@@ -1283,7 +1283,7 @@
         <v>11</v>
       </c>
       <c r="C41" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D41" s="3">
         <v>18.24620329757613</v>
@@ -1301,7 +1301,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D42" s="3">
         <v>18.429091705408435</v>
@@ -1323,7 +1323,7 @@
         <v>8</v>
       </c>
       <c r="C43" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D43" s="3">
         <v>18.2990227025075</v>
@@ -1341,7 +1341,7 @@
         <v>9</v>
       </c>
       <c r="C44" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D44" s="3">
         <v>19.079778736995337</v>
@@ -1359,7 +1359,7 @@
         <v>10</v>
       </c>
       <c r="C45" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D45" s="3">
         <v>17.547334989540978</v>
@@ -1377,7 +1377,7 @@
         <v>11</v>
       </c>
       <c r="C46" s="4">
-        <v>45437</v>
+        <v>45458</v>
       </c>
       <c r="D46" s="3">
         <v>17.312336025619821</v>
